--- a/documentation/_static/360-giving-schema-titles-with-meta-tab-2023.xlsx
+++ b/documentation/_static/360-giving-schema-titles-with-meta-tab-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,6 @@
     <sheet name="applicationTransaction" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="commitmentTransaction" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="disbursementTransaction" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="deiDetails" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -423,75 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">Related Document:Last Modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:DEI Data Standard Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Purposes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Leadership:Asked Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Leadership:Reply Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Leadership:Available Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Leadership:Additional Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Leadership:DEI Response:Taxonomy Codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Leadership:DEI Response:Lived Experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Leadership:DEI Response:Geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Mission:Asked Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Mission:Reply Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Mission:Available Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Mission:Additional Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Mission:DEI Response:Taxonomy Codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Mission:DEI Response:Lived Experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Mission:DEI Response:Geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Project:Asked Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Project:Reply Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Project:Available Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Project:Additional Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Project:DEI Response:Taxonomy Codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Project:DEI Response:Lived Experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEI Details:Project:DEI Response:Geography</t>
   </si>
 </sst>
 </file>
@@ -572,7 +502,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,78 +526,78 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="1:1 A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -690,31 +620,31 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -737,43 +667,43 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -796,67 +726,67 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -879,31 +809,31 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -926,13 +856,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -955,13 +885,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -983,15 +913,179 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AT1"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1005,255 +1099,376 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:X1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AT1"/>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT1" s="0" t="s">
-        <v>56</v>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1265,387 +1480,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/documentation/_static/360-giving-schema-titles-with-meta-tab-2023.xlsx
+++ b/documentation/_static/360-giving-schema-titles-with-meta-tab-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" state="visible" r:id="rId2"/>
@@ -525,11 +525,11 @@
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -623,7 +623,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -670,7 +670,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -729,7 +729,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -812,7 +812,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -859,7 +859,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -888,7 +888,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -913,11 +913,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -946,7 +946,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1110,7 +1110,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1157,7 +1157,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1213,7 +1213,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1260,7 +1260,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1319,7 +1319,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1402,7 +1402,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1449,7 +1449,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
